--- a/public/data/import siswa.xlsx
+++ b/public/data/import siswa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bima Ega\Downloads\file import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bima Ega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E85B2328-86B0-4FD4-9803-2417B930A764}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378867C5-48CC-4822-9638-0DFCBC392B08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{D42EBC96-3C85-4E94-A84C-8340C0A84276}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Nomor Induk</t>
   </si>
@@ -63,14 +63,74 @@
     <t>7C</t>
   </si>
   <si>
-    <t>https://wa.me/6282277506232</t>
+    <t>https://drive.google.com/file/d/11faiw5Ue03lqIJIBXRhYruO7dGQaX-cJ/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1krPcODTVfn4YuY0OLTTHWfyX5M49YvgC/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jD4MaNLnsUyF_P2lNoQCSUPIouRJJGkO/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gbPu2JCyG9VQZ47SJSO0nceO8EMD4r-u/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>pq123</t>
+  </si>
+  <si>
+    <t>pq124</t>
+  </si>
+  <si>
+    <t>pq125</t>
+  </si>
+  <si>
+    <t>pq126</t>
+  </si>
+  <si>
+    <t>Jeni Kelamin</t>
+  </si>
+  <si>
+    <t>Alamat</t>
+  </si>
+  <si>
+    <t>Nama Orang Tua</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Alamat Siswa 1</t>
+  </si>
+  <si>
+    <t>Alamat Siswa 2</t>
+  </si>
+  <si>
+    <t>Alamat Siswa 3</t>
+  </si>
+  <si>
+    <t>Alamat Siswa 4</t>
+  </si>
+  <si>
+    <t>Orang Tua Siswa 1</t>
+  </si>
+  <si>
+    <t>Orang Tua Siswa 2</t>
+  </si>
+  <si>
+    <t>Orang Tua Siswa 3</t>
+  </si>
+  <si>
+    <t>Orang Tua Siswa 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +142,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,12 +188,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -444,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666F1274-81CD-40F2-AB68-71B5793F6915}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,11 +527,13 @@
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="87.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -469,82 +543,128 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>1111111</v>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>2222222</v>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>3333333</v>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>4444444</v>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
